--- a/Web前端开发100例/Web前端100例兼容性测试报告.xlsx
+++ b/Web前端开发100例/Web前端100例兼容性测试报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\oooooooooooooooooo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Web-\Web前端开发100例\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2324,7 +2324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="10"/>
@@ -2604,6 +2604,21 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2621,21 +2636,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2983,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -2993,7 +2993,7 @@
     <col min="2" max="2" width="26.42578125" style="2"/>
     <col min="3" max="3" width="88.28515625" style="3"/>
     <col min="4" max="8" width="14.42578125" style="4"/>
-    <col min="9" max="9" width="14.42578125" style="37"/>
+    <col min="9" max="9" width="14.42578125" style="31"/>
     <col min="10" max="11" width="14.42578125" style="4"/>
     <col min="12" max="12" width="14.42578125" style="5"/>
     <col min="13" max="13" width="14.42578125" style="4"/>
@@ -3001,31 +3001,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="30" t="str">
+      <c r="A1" s="35" t="str">
         <f>L49</f>
         <v>√</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="17" t="s">
@@ -3061,7 +3061,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3082,7 +3082,7 @@
       <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -3102,7 +3102,7 @@
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -3141,7 +3141,7 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -3180,7 +3180,7 @@
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="H6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="10" t="s">
@@ -3219,7 +3219,7 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="H7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="10" t="s">
@@ -3258,7 +3258,7 @@
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="H8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -3297,7 +3297,7 @@
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
@@ -3316,7 +3316,7 @@
       <c r="H9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="10" t="s">
@@ -3336,7 +3336,7 @@
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="H10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="10" t="s">
@@ -3375,7 +3375,7 @@
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="H11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -3414,7 +3414,7 @@
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="H12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="10" t="s">
@@ -3453,7 +3453,7 @@
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="11" t="s">
         <v>24</v>
       </c>
@@ -3472,7 +3472,7 @@
       <c r="H13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="10" t="s">
@@ -3492,7 +3492,7 @@
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="H14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="10" t="s">
@@ -3531,7 +3531,7 @@
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="H15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -3570,7 +3570,7 @@
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="H16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="10" t="s">
@@ -3609,7 +3609,7 @@
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="11" t="s">
         <v>29</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="H17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="10" t="s">
@@ -3648,7 +3648,7 @@
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="11" t="s">
         <v>30</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="H18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="10" t="s">
@@ -3687,7 +3687,7 @@
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="11" t="s">
         <v>31</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="H19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="10" t="s">
@@ -3726,7 +3726,7 @@
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="11" t="s">
         <v>32</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="H20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="10" t="s">
@@ -3765,7 +3765,7 @@
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="11" t="s">
         <v>33</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="H21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="10" t="s">
@@ -3804,7 +3804,7 @@
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="11" t="s">
         <v>34</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="H22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="10" t="s">
@@ -3843,7 +3843,7 @@
       <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="11" t="s">
         <v>35</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="H23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="10" t="s">
@@ -3882,7 +3882,7 @@
       <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="11" t="s">
         <v>36</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="H24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="10" t="s">
@@ -3921,7 +3921,7 @@
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="11" t="s">
         <v>37</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="H25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="10" t="s">
@@ -3960,7 +3960,7 @@
       <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="11" t="s">
         <v>38</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="H26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="10" t="s">
@@ -3999,7 +3999,7 @@
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="11" t="s">
         <v>39</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="H27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="10" t="s">
@@ -4038,7 +4038,7 @@
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="11" t="s">
         <v>40</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="H28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="10" t="s">
@@ -4077,7 +4077,7 @@
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="11" t="s">
         <v>41</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="H29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J29" s="10" t="s">
@@ -4116,7 +4116,7 @@
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="11" t="s">
         <v>42</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="H30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="10" t="s">
@@ -4155,7 +4155,7 @@
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="9" t="s">
         <v>43</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="H31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J31" s="10" t="s">
@@ -4194,7 +4194,7 @@
       <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="9" t="s">
         <v>44</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="H32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J32" s="10" t="s">
@@ -4233,7 +4233,7 @@
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -4254,7 +4254,7 @@
       <c r="H33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="10" t="s">
@@ -4274,7 +4274,7 @@
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="31"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="11" t="s">
         <v>47</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="H34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J34" s="10" t="s">
@@ -4313,7 +4313,7 @@
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="31"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="11" t="s">
         <v>48</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="H35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="10" t="s">
@@ -4352,7 +4352,7 @@
       <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="31"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="11" t="s">
         <v>49</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="H36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="10" t="s">
@@ -4391,7 +4391,7 @@
       <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="31"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="11" t="s">
         <v>50</v>
       </c>
@@ -4410,7 +4410,7 @@
       <c r="H37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="I37" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J37" s="10" t="s">
@@ -4430,7 +4430,7 @@
       <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="11" t="s">
         <v>51</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="H38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J38" s="10" t="s">
@@ -4469,7 +4469,7 @@
       <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="31"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="11" t="s">
         <v>52</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="H39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J39" s="10" t="s">
@@ -4508,7 +4508,7 @@
       <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="11" t="s">
         <v>53</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="H40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J40" s="10" t="s">
@@ -4547,7 +4547,7 @@
       <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="14" t="s">
         <v>54</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="H41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J41" s="10" t="s">
@@ -4586,7 +4586,7 @@
       <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="31"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="11" t="s">
         <v>55</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="H42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J42" s="10" t="s">
@@ -4625,7 +4625,7 @@
       <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="31"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="11" t="s">
         <v>56</v>
       </c>
@@ -4644,7 +4644,7 @@
       <c r="H43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J43" s="10" t="s">
@@ -4664,15 +4664,15 @@
       <c r="A44" s="8">
         <v>42</v>
       </c>
-      <c r="B44" s="31"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>14</v>
+      <c r="E44" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>14</v>
@@ -4683,7 +4683,7 @@
       <c r="H44" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J44" s="10" t="s">
@@ -4703,7 +4703,7 @@
       <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="31"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="11" t="s">
         <v>58</v>
       </c>
@@ -4722,7 +4722,7 @@
       <c r="H45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="34" t="s">
+      <c r="I45" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J45" s="10" t="s">
@@ -4742,7 +4742,7 @@
       <c r="A46" s="8">
         <v>44</v>
       </c>
-      <c r="B46" s="31"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="11" t="s">
         <v>59</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="H46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="34" t="s">
+      <c r="I46" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J46" s="10" t="s">
@@ -4781,7 +4781,7 @@
       <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="31"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="11" t="s">
         <v>60</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="H47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="34" t="s">
+      <c r="I47" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J47" s="10" t="s">
@@ -4820,7 +4820,7 @@
       <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="B48" s="31"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="11" t="s">
         <v>61</v>
       </c>
@@ -4839,7 +4839,7 @@
       <c r="H48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="34" t="s">
+      <c r="I48" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J48" s="10" t="s">
@@ -4859,7 +4859,7 @@
       <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="31"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="11" t="s">
         <v>62</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="H49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J49" s="10" t="s">
@@ -4898,7 +4898,7 @@
       <c r="A50" s="8">
         <v>48</v>
       </c>
-      <c r="B50" s="31"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="11" t="s">
         <v>63</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="H50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J50" s="10" t="s">
@@ -4937,7 +4937,7 @@
       <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="31"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="11" t="s">
         <v>64</v>
       </c>
@@ -4956,7 +4956,7 @@
       <c r="H51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="34" t="s">
+      <c r="I51" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J51" s="10" t="s">
@@ -4976,7 +4976,7 @@
       <c r="A52" s="8">
         <v>50</v>
       </c>
-      <c r="B52" s="31"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="11" t="s">
         <v>65</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="H52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="34" t="s">
+      <c r="I52" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J52" s="10" t="s">
@@ -5015,7 +5015,7 @@
       <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="31"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="15" t="s">
         <v>66</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="H53" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="34" t="s">
+      <c r="I53" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J53" s="10" t="s">
@@ -5054,7 +5054,7 @@
       <c r="A54" s="8">
         <v>52</v>
       </c>
-      <c r="B54" s="31"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="15" t="s">
         <v>67</v>
       </c>
@@ -5073,7 +5073,7 @@
       <c r="H54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="34" t="s">
+      <c r="I54" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J54" s="10" t="s">
@@ -5093,7 +5093,7 @@
       <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="B55" s="31"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="15" t="s">
         <v>68</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="H55" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="34" t="s">
+      <c r="I55" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J55" s="10" t="s">
@@ -5132,7 +5132,7 @@
       <c r="A56" s="8">
         <v>54</v>
       </c>
-      <c r="B56" s="31"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="15" t="s">
         <v>69</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="H56" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="34" t="s">
+      <c r="I56" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J56" s="10" t="s">
@@ -5171,7 +5171,7 @@
       <c r="A57" s="8">
         <v>55</v>
       </c>
-      <c r="B57" s="31"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="16" t="s">
         <v>70</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="H57" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="34" t="s">
+      <c r="I57" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J57" s="10" t="s">
@@ -5210,7 +5210,7 @@
       <c r="A58" s="8">
         <v>56</v>
       </c>
-      <c r="B58" s="31"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="15" t="s">
         <v>71</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="H58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="34" t="s">
+      <c r="I58" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J58" s="10" t="s">
@@ -5249,7 +5249,7 @@
       <c r="A59" s="8">
         <v>57</v>
       </c>
-      <c r="B59" s="31"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="15" t="s">
         <v>72</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="H59" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="34" t="s">
+      <c r="I59" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J59" s="10" t="s">
@@ -5288,7 +5288,7 @@
       <c r="A60" s="8">
         <v>58</v>
       </c>
-      <c r="B60" s="31"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="15" t="s">
         <v>73</v>
       </c>
@@ -5307,7 +5307,7 @@
       <c r="H60" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="34" t="s">
+      <c r="I60" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J60" s="10" t="s">
@@ -5327,7 +5327,7 @@
       <c r="A61" s="8">
         <v>59</v>
       </c>
-      <c r="B61" s="31"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="15" t="s">
         <v>74</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="H61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="34" t="s">
+      <c r="I61" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J61" s="10" t="s">
@@ -5366,7 +5366,7 @@
       <c r="A62" s="8">
         <v>60</v>
       </c>
-      <c r="B62" s="31"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="15" t="s">
         <v>117</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="H62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="34" t="s">
+      <c r="I62" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J62" s="10" t="s">
@@ -5405,7 +5405,7 @@
       <c r="A63" s="8">
         <v>61</v>
       </c>
-      <c r="B63" s="31"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="15" t="s">
         <v>75</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="H63" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I63" s="34" t="s">
+      <c r="I63" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J63" s="10" t="s">
@@ -5444,7 +5444,7 @@
       <c r="A64" s="8">
         <v>62</v>
       </c>
-      <c r="B64" s="31"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="15" t="s">
         <v>76</v>
       </c>
@@ -5463,7 +5463,7 @@
       <c r="H64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I64" s="34" t="s">
+      <c r="I64" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J64" s="10" t="s">
@@ -5483,7 +5483,7 @@
       <c r="A65" s="8">
         <v>63</v>
       </c>
-      <c r="B65" s="31"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="15" t="s">
         <v>77</v>
       </c>
@@ -5502,7 +5502,7 @@
       <c r="H65" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="34" t="s">
+      <c r="I65" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J65" s="10" t="s">
@@ -5522,7 +5522,7 @@
       <c r="A66" s="8">
         <v>64</v>
       </c>
-      <c r="B66" s="31"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="19" t="s">
         <v>78</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="H66" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="34" t="s">
+      <c r="I66" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J66" s="10" t="s">
@@ -5561,7 +5561,7 @@
       <c r="A67" s="8">
         <v>65</v>
       </c>
-      <c r="B67" s="31"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="15" t="s">
         <v>79</v>
       </c>
@@ -5580,7 +5580,7 @@
       <c r="H67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="34" t="s">
+      <c r="I67" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J67" s="10" t="s">
@@ -5600,7 +5600,7 @@
       <c r="A68" s="8">
         <v>66</v>
       </c>
-      <c r="B68" s="31"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="15" t="s">
         <v>80</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="H68" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I68" s="34" t="s">
+      <c r="I68" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J68" s="10" t="s">
@@ -5639,7 +5639,7 @@
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="31"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="15" t="s">
         <v>81</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="H69" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="34" t="s">
+      <c r="I69" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J69" s="10" t="s">
@@ -5678,7 +5678,7 @@
       <c r="A70" s="8">
         <v>68</v>
       </c>
-      <c r="B70" s="31"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="15" t="s">
         <v>82</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="H70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J70" s="10" t="s">
@@ -5717,7 +5717,7 @@
       <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="31"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="15" t="s">
         <v>83</v>
       </c>
@@ -5736,7 +5736,7 @@
       <c r="H71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="34" t="s">
+      <c r="I71" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J71" s="10" t="s">
@@ -5756,7 +5756,7 @@
       <c r="A72" s="8">
         <v>70</v>
       </c>
-      <c r="B72" s="31"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="15" t="s">
         <v>84</v>
       </c>
@@ -5775,7 +5775,7 @@
       <c r="H72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="34" t="s">
+      <c r="I72" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J72" s="10" t="s">
@@ -5795,7 +5795,7 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="37" t="s">
         <v>85</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -5816,7 +5816,7 @@
       <c r="H73" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I73" s="35" t="s">
+      <c r="I73" s="29" t="s">
         <v>25</v>
       </c>
       <c r="J73" s="12" t="s">
@@ -5836,7 +5836,7 @@
       <c r="A74" s="8">
         <v>72</v>
       </c>
-      <c r="B74" s="32"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="21" t="s">
         <v>87</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="H74" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I74" s="35" t="s">
+      <c r="I74" s="29" t="s">
         <v>25</v>
       </c>
       <c r="J74" s="10" t="s">
@@ -5875,7 +5875,7 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="32"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="15" t="s">
         <v>88</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="H75" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I75" s="35" t="s">
+      <c r="I75" s="29" t="s">
         <v>25</v>
       </c>
       <c r="J75" s="10" t="s">
@@ -5914,7 +5914,7 @@
       <c r="A76" s="8">
         <v>74</v>
       </c>
-      <c r="B76" s="32"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="15" t="s">
         <v>89</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="H76" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="34" t="s">
+      <c r="I76" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J76" s="10" t="s">
@@ -5953,7 +5953,7 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="32"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="15" t="s">
         <v>90</v>
       </c>
@@ -5972,7 +5972,7 @@
       <c r="H77" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I77" s="34" t="s">
+      <c r="I77" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J77" s="10" t="s">
@@ -5992,7 +5992,7 @@
       <c r="A78" s="8">
         <v>76</v>
       </c>
-      <c r="B78" s="32"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="22" t="s">
         <v>91</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="H78" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I78" s="35" t="s">
+      <c r="I78" s="29" t="s">
         <v>25</v>
       </c>
       <c r="J78" s="10" t="s">
@@ -6031,7 +6031,7 @@
       <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="32"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="22" t="s">
         <v>92</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="H79" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="34" t="s">
+      <c r="I79" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J79" s="10" t="s">
@@ -6070,7 +6070,7 @@
       <c r="A80" s="8">
         <v>78</v>
       </c>
-      <c r="B80" s="32"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="22" t="s">
         <v>93</v>
       </c>
@@ -6089,7 +6089,7 @@
       <c r="H80" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I80" s="34" t="s">
+      <c r="I80" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J80" s="10" t="s">
@@ -6109,7 +6109,7 @@
       <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="32"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="22" t="s">
         <v>94</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="H81" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="34" t="s">
+      <c r="I81" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J81" s="10" t="s">
@@ -6148,7 +6148,7 @@
       <c r="A82" s="8">
         <v>80</v>
       </c>
-      <c r="B82" s="32"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="22" t="s">
         <v>95</v>
       </c>
@@ -6167,7 +6167,7 @@
       <c r="H82" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="34" t="s">
+      <c r="I82" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J82" s="10" t="s">
@@ -6187,7 +6187,7 @@
       <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="32"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="23" t="s">
         <v>96</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="H83" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="34" t="s">
+      <c r="I83" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J83" s="10" t="s">
@@ -6226,7 +6226,7 @@
       <c r="A84" s="8">
         <v>82</v>
       </c>
-      <c r="B84" s="32"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="15" t="s">
         <v>97</v>
       </c>
@@ -6245,7 +6245,7 @@
       <c r="H84" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="34" t="s">
+      <c r="I84" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J84" s="10" t="s">
@@ -6265,7 +6265,7 @@
       <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="32"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="21" t="s">
         <v>98</v>
       </c>
@@ -6284,7 +6284,7 @@
       <c r="H85" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I85" s="35" t="s">
+      <c r="I85" s="29" t="s">
         <v>25</v>
       </c>
       <c r="J85" s="10" t="s">
@@ -6304,7 +6304,7 @@
       <c r="A86" s="8">
         <v>84</v>
       </c>
-      <c r="B86" s="32"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="21" t="s">
         <v>99</v>
       </c>
@@ -6323,7 +6323,7 @@
       <c r="H86" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I86" s="34" t="s">
+      <c r="I86" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J86" s="10" t="s">
@@ -6343,7 +6343,7 @@
       <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="32"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="21" t="s">
         <v>100</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="H87" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I87" s="34" t="s">
+      <c r="I87" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J87" s="10" t="s">
@@ -6382,7 +6382,7 @@
       <c r="A88" s="8">
         <v>86</v>
       </c>
-      <c r="B88" s="32"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="15" t="s">
         <v>101</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="H88" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I88" s="34" t="s">
+      <c r="I88" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J88" s="10" t="s">
@@ -6421,7 +6421,7 @@
       <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="32"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="15" t="s">
         <v>102</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="H89" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I89" s="35" t="s">
+      <c r="I89" s="29" t="s">
         <v>25</v>
       </c>
       <c r="J89" s="10" t="s">
@@ -6460,7 +6460,7 @@
       <c r="A90" s="8">
         <v>88</v>
       </c>
-      <c r="B90" s="32"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="15" t="s">
         <v>103</v>
       </c>
@@ -6479,7 +6479,7 @@
       <c r="H90" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I90" s="34" t="s">
+      <c r="I90" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J90" s="10" t="s">
@@ -6499,7 +6499,7 @@
       <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="32"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="15" t="s">
         <v>104</v>
       </c>
@@ -6518,7 +6518,7 @@
       <c r="H91" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I91" s="34" t="s">
+      <c r="I91" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J91" s="10" t="s">
@@ -6538,7 +6538,7 @@
       <c r="A92" s="8">
         <v>90</v>
       </c>
-      <c r="B92" s="32"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="24" t="s">
         <v>105</v>
       </c>
@@ -6557,7 +6557,7 @@
       <c r="H92" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I92" s="34" t="s">
+      <c r="I92" s="28" t="s">
         <v>14</v>
       </c>
       <c r="J92" s="10" t="s">
@@ -6577,7 +6577,7 @@
       <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="32" t="s">
         <v>106</v>
       </c>
       <c r="C93" s="15" t="s">
@@ -6588,7 +6588,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="36"/>
+      <c r="I93" s="30"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
@@ -6598,7 +6598,7 @@
       <c r="A94" s="8">
         <v>92</v>
       </c>
-      <c r="B94" s="27"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="25" t="s">
         <v>108</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="36"/>
+      <c r="I94" s="30"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -6617,7 +6617,7 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="27"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="16" t="s">
         <v>109</v>
       </c>
@@ -6626,7 +6626,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="36"/>
+      <c r="I95" s="30"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -6636,7 +6636,7 @@
       <c r="A96" s="8">
         <v>94</v>
       </c>
-      <c r="B96" s="27"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="16" t="s">
         <v>110</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="36"/>
+      <c r="I96" s="30"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -6655,7 +6655,7 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="27"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="16" t="s">
         <v>111</v>
       </c>
@@ -6664,7 +6664,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="36"/>
+      <c r="I97" s="30"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -6674,7 +6674,7 @@
       <c r="A98" s="8">
         <v>96</v>
       </c>
-      <c r="B98" s="27"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="16" t="s">
         <v>112</v>
       </c>
@@ -6683,7 +6683,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="36"/>
+      <c r="I98" s="30"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -6693,7 +6693,7 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="27"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="16" t="s">
         <v>113</v>
       </c>
@@ -6702,7 +6702,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="36"/>
+      <c r="I99" s="30"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
@@ -6712,7 +6712,7 @@
       <c r="A100" s="8">
         <v>98</v>
       </c>
-      <c r="B100" s="27"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="16" t="s">
         <v>114</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="36"/>
+      <c r="I100" s="30"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
@@ -6731,7 +6731,7 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="27"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="16" t="s">
         <v>115</v>
       </c>
@@ -6740,7 +6740,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="36"/>
+      <c r="I101" s="30"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
@@ -6750,7 +6750,7 @@
       <c r="A102" s="8">
         <v>100</v>
       </c>
-      <c r="B102" s="27"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="16" t="s">
         <v>116</v>
       </c>
@@ -6759,7 +6759,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="36"/>
+      <c r="I102" s="30"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>

--- a/Web前端开发100例/Web前端100例兼容性测试报告.xlsx
+++ b/Web前端开发100例/Web前端100例兼容性测试报告.xlsx
@@ -2983,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -5807,14 +5807,14 @@
       <c r="E73" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F73" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>14</v>
+      <c r="F73" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="I73" s="29" t="s">
         <v>25</v>
@@ -5822,14 +5822,14 @@
       <c r="J73" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K73" s="10" t="s">
-        <v>14</v>
+      <c r="K73" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M73" s="10" t="s">
-        <v>14</v>
+      <c r="M73" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:13">

--- a/Web前端开发100例/Web前端100例兼容性测试报告.xlsx
+++ b/Web前端开发100例/Web前端100例兼容性测试报告.xlsx
@@ -2983,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -5846,17 +5846,17 @@
       <c r="E74" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F74" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I74" s="29" t="s">
-        <v>25</v>
+      <c r="F74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="J74" s="10" t="s">
         <v>14</v>
@@ -5885,17 +5885,17 @@
       <c r="E75" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I75" s="29" t="s">
-        <v>25</v>
+      <c r="F75" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="J75" s="10" t="s">
         <v>14</v>
@@ -5957,8 +5957,8 @@
       <c r="C77" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D77" s="10" t="s">
-        <v>14</v>
+      <c r="D77" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>120</v>
@@ -6005,11 +6005,11 @@
       <c r="F78" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G78" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>14</v>
+      <c r="G78" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="I78" s="29" t="s">
         <v>25</v>

--- a/Web前端开发100例/Web前端100例兼容性测试报告.xlsx
+++ b/Web前端开发100例/Web前端100例兼容性测试报告.xlsx
@@ -1985,33 +1985,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微数据（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Microdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
     <t>综合实训</t>
   </si>
   <si>
@@ -2318,6 +2291,10 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>微数据(Microdata)</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2983,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -5368,7 +5345,7 @@
       </c>
       <c r="B62" s="36"/>
       <c r="C62" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>14</v>
@@ -5805,16 +5782,16 @@
         <v>25</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I73" s="29" t="s">
         <v>25</v>
@@ -5844,7 +5821,7 @@
         <v>25</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>14</v>
@@ -5922,7 +5899,7 @@
         <v>25</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>14</v>
@@ -5958,10 +5935,10 @@
         <v>90</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>25</v>
@@ -6540,7 +6517,7 @@
       </c>
       <c r="B92" s="37"/>
       <c r="C92" s="24" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>14</v>
@@ -6578,10 +6555,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -6600,7 +6577,7 @@
       </c>
       <c r="B94" s="32"/>
       <c r="C94" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D94" s="26"/>
       <c r="E94" s="26"/>
@@ -6619,7 +6596,7 @@
       </c>
       <c r="B95" s="32"/>
       <c r="C95" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -6638,7 +6615,7 @@
       </c>
       <c r="B96" s="32"/>
       <c r="C96" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -6657,7 +6634,7 @@
       </c>
       <c r="B97" s="32"/>
       <c r="C97" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -6676,7 +6653,7 @@
       </c>
       <c r="B98" s="32"/>
       <c r="C98" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -6695,7 +6672,7 @@
       </c>
       <c r="B99" s="32"/>
       <c r="C99" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -6714,7 +6691,7 @@
       </c>
       <c r="B100" s="32"/>
       <c r="C100" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -6733,7 +6710,7 @@
       </c>
       <c r="B101" s="32"/>
       <c r="C101" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -6752,7 +6729,7 @@
       </c>
       <c r="B102" s="32"/>
       <c r="C102" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
